--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/레이디버드_잔나비.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/레이디버드_잔나비.xlsx
@@ -17,7 +17,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_8cc935fb8f69c12dd67c5bae966dfcb5</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_95b28d5a39ac41c72f570890087e9ba4</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,18 +56,6 @@
     <t>레이디버드</t>
   </si>
   <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>19.5165</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>20.87264</t>
-  </si>
-  <si>
     <t>2022-04-18</t>
   </si>
   <si>
@@ -237,6 +225,18 @@
   </si>
   <si>
     <t>29.8349</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>25.47169</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>27.83018</t>
   </si>
 </sst>
 </file>
@@ -508,23 +508,23 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31">
